--- a/data/trans_orig/Q57-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Dificultad-trans_orig.xlsx
@@ -608,7 +608,7 @@
         <v>7.283147439833502</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.197832720927512</v>
+        <v>7.197832720927513</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.055301676424357</v>
@@ -620,7 +620,7 @@
         <v>7.163070152020612</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.111382491794629</v>
+        <v>7.11138249179463</v>
       </c>
     </row>
     <row r="5">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.174495476994231</v>
+        <v>7.175857539160654</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.988794369886977</v>
+        <v>6.961408627091286</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.950896068725426</v>
+        <v>6.94679696080948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.87376758502587</v>
+        <v>6.869774599201305</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.083990080118898</v>
+        <v>7.087795238607971</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.978659882788111</v>
+        <v>6.982354672453246</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.378716727138761</v>
+        <v>7.387225945688045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.432496195286376</v>
+        <v>7.392166736283404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.162766054522237</v>
+        <v>7.166017935028401</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.215844093922787</v>
+        <v>7.190180529874206</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.237656668064575</v>
+        <v>7.242771966445743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.239133884240762</v>
+        <v>7.255748894264045</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>7.731496244633289</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.097460300274195</v>
+        <v>8.097460300274193</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>7.538027573722589</v>
@@ -702,7 +702,7 @@
         <v>7.629771815502732</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.905307306415397</v>
+        <v>7.905307306415398</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.643671607165346</v>
+        <v>7.643044032087966</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.992835289507269</v>
+        <v>7.973655273652626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.440879929213982</v>
+        <v>7.437364320532254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.648260964265429</v>
+        <v>7.646290293022583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.563387526856201</v>
+        <v>7.553463389513464</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.83247320138759</v>
+        <v>7.834984324912352</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.826866084031921</v>
+        <v>7.831977443452273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.207716115312136</v>
+        <v>8.194516396660767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.652637583003698</v>
+        <v>7.635627932159817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.835301693964312</v>
+        <v>7.828382059451011</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.700476221318504</v>
+        <v>7.698843229726929</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.975782849925485</v>
+        <v>7.978020348336158</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>7.660358777776462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.11489585069369</v>
+        <v>8.114895850693694</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.791940044556996</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.823065320446459</v>
+        <v>7.812868861655486</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.263601395651541</v>
+        <v>8.261498418010129</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.547646301581001</v>
+        <v>7.538463900737704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.03227737080859</v>
+        <v>8.03729050888178</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.713813258793755</v>
+        <v>7.714121070128516</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.178768535504174</v>
+        <v>8.170476198913919</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.011160633368387</v>
+        <v>8.001145658373138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.43797496195303</v>
+        <v>8.44267967793691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.777847827760056</v>
+        <v>7.783172333396815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.19511053754993</v>
+        <v>8.187480976221593</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.861882109594724</v>
+        <v>7.866835827986782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.299552684632999</v>
+        <v>8.291367594039034</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>7.948753018208703</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.431971424401459</v>
+        <v>8.431971424401457</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>8.056941445488631</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.025255243186113</v>
+        <v>8.02137284589563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.314165701762558</v>
+        <v>8.311414148261175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.790662099688359</v>
+        <v>7.791723206883483</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.353307841715516</v>
+        <v>8.354254777092589</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.963528966274512</v>
+        <v>7.948062020552055</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.362097078904238</v>
+        <v>8.35411556771084</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.279621489228973</v>
+        <v>8.284533642203309</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.520552664721452</v>
+        <v>8.515554996128072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.078049929795281</v>
+        <v>8.086604163010703</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.513891808985385</v>
+        <v>8.508257655190853</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.160847666849177</v>
+        <v>8.148394902732072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.489217444525513</v>
+        <v>8.488790045319275</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.634494693272432</v>
+        <v>7.632621045804316</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.074223120003431</v>
+        <v>8.073734812375584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.389342151406395</v>
+        <v>7.386185511773514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.84678742053164</v>
+        <v>7.845059312939706</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.527699558655828</v>
+        <v>7.527098832303347</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.978343895250164</v>
+        <v>7.975837718580704</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.743852695355684</v>
+        <v>7.750056477373032</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.192870998442976</v>
+        <v>8.193311446494544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.509003839272614</v>
+        <v>7.515110920222202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.954680734142101</v>
+        <v>7.946337740545627</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.606145771335362</v>
+        <v>7.607068993537462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.052397023339909</v>
+        <v>8.055645278393547</v>
       </c>
     </row>
     <row r="19">
